--- a/davidmszabo.com/Time Sheet.xlsx
+++ b/davidmszabo.com/Time Sheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20780" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Start time</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>http://mrarrowhead.com/index.php?page=php_passing_variables.php</t>
+  </si>
+  <si>
+    <t>Simplyfying the code</t>
+  </si>
+  <si>
+    <t>Stackoverflow php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have the error msg now, but still don't know the solution </t>
+  </si>
+  <si>
+    <t>error is: Can't connect to local MySQL server through socket '/var/lib/mysql/mysql.sock' (2) in /usr/local/pem/vhosts/479307/webspace/httpdocs/davidmszabo.com/articles/manage_comments.php</t>
   </si>
 </sst>
 </file>
@@ -139,8 +151,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -153,9 +173,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,20 +518,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -523,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
@@ -535,7 +563,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -549,7 +577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>0.75</v>
       </c>
@@ -557,7 +585,7 @@
         <v>0.8125</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C10" si="0">B4-A4</f>
+        <f t="shared" ref="C4:C13" si="0">B4-A4</f>
         <v>6.25E-2</v>
       </c>
       <c r="D4" s="3">
@@ -570,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="26" customHeight="1">
       <c r="A5" s="2">
         <v>0.70833333333333337</v>
       </c>
@@ -591,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -612,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>0.69791666666666663</v>
       </c>
@@ -633,7 +661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>0.65277777777777779</v>
       </c>
@@ -654,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -675,7 +703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>0.77083333333333337</v>
       </c>
@@ -696,9 +724,75 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="D11" s="3">
+        <v>41810</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>41811</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.333333333333327E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>41821</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2">
+        <f>SUM(C2:C19)</f>
+        <v>1.6888888888888887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
